--- a/datasets/10x_xenium_mouse_brain.xlsx
+++ b/datasets/10x_xenium_mouse_brain.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">datasets/10x_xenium_mouse_brain/metrics_summary.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">ENSEMBL</t>
+    <t xml:space="preserve">ENSEMBL,NO,NO,NO</t>
   </si>
 </sst>
 </file>
@@ -170,10 +170,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.56"/>
   </cols>
